--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academic\Bham\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\peer_empathy\Experiment\thresholding-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD4CAE80-1465-4F93-B4DD-B0A55E7645C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B66F48-6AE6-4A8E-B69C-100544E36505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5A4C7E77-453D-4710-AED7-B0926C3ACF70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{5A4C7E77-453D-4710-AED7-B0926C3ACF70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,14 +50,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -91,7 +91,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,106 +423,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7053E87-B1DA-4B83-B911-D31DF2C096BF}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>8.5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>9.5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>10</v>
       </c>
     </row>
